--- a/Documents/PartList.xlsx
+++ b/Documents/PartList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monke\Documents\GitHub\HIDProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC2786-C63C-4569-894E-DD71E60A2C3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA9348-591D-4BA5-B923-4781933F1F95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13944" yWindow="2688" windowWidth="25992" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Type</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/32880026948.html</t>
+  </si>
+  <si>
+    <t>Cherry MX Switch</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/datasheets/Components/Switches/MX%20Series.pdf</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/13834</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/13773</t>
+  </si>
+  <si>
+    <t>Cherry MX Switch Breakout Board</t>
   </si>
 </sst>
 </file>
@@ -243,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -287,6 +302,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,7 +619,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -709,29 +726,59 @@
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10">
+        <v>1.9950000000000001</v>
+      </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="8">
+        <v>9</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10">
+        <v>1.9950000000000001</v>
+      </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="8">
+        <v>9</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12">
